--- a/EmployeeTracking/temp_files/SEMS user list format.xlsx
+++ b/EmployeeTracking/temp_files/SEMS user list format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4365" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Sheet" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>General Information</t>
   </si>
@@ -126,79 +117,106 @@
     <t>Division Code (SCO/STL)</t>
   </si>
   <si>
-    <t>Draugtsman</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>STL</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Married</t>
   </si>
   <si>
-    <t>717671996V</t>
-  </si>
-  <si>
-    <t>09/23/1971</t>
-  </si>
-  <si>
-    <t>"Pascan", Kuda Waskaduwa, waskaduwa.</t>
-  </si>
-  <si>
-    <t>0714077245</t>
-  </si>
-  <si>
-    <t>0342226083</t>
-  </si>
-  <si>
-    <t>rasikakee@gmail.com</t>
-  </si>
-  <si>
-    <t>Sri Sumangala Girls School - Panadura</t>
-  </si>
-  <si>
-    <t>N.C.T. (Q.S.)</t>
-  </si>
-  <si>
-    <t>Cad Drawing</t>
-  </si>
-  <si>
-    <t>05-19-1994</t>
-  </si>
-  <si>
-    <t>0115</t>
-  </si>
-  <si>
-    <t>Telecom Head Office</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Madusanka</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1111111</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>Matara</t>
+  </si>
+  <si>
+    <t>CASUAL</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>FTTH New connection</t>
+  </si>
+  <si>
+    <t>N.T.Saranga</t>
+  </si>
+  <si>
+    <t>6841</t>
+  </si>
+  <si>
+    <t>Work Supervisor</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>910360701V</t>
+  </si>
+  <si>
+    <t>02/05/1991</t>
+  </si>
+  <si>
+    <t>10.Capital City,Karuwala Bedda,Kaburugamuwa</t>
+  </si>
+  <si>
+    <t>0718984026</t>
+  </si>
+  <si>
+    <t>tsaranga881@gmail.com</t>
+  </si>
+  <si>
+    <t>MR/Deniyaya Central College</t>
+  </si>
+  <si>
+    <t>Certificate of Com-Technology</t>
+  </si>
+  <si>
+    <t>Field work supervising/FTTH PAT</t>
+  </si>
+  <si>
+    <t>11-11-2020</t>
+  </si>
+  <si>
+    <t>W.I.Ariyadasa</t>
+  </si>
+  <si>
+    <t>5033</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>542781300V</t>
+  </si>
+  <si>
+    <t>10/04/1954</t>
+  </si>
+  <si>
+    <t>10,Menum Waththa,Medagama,Medamulana</t>
+  </si>
+  <si>
+    <t>0702182591</t>
+  </si>
+  <si>
+    <t>H/Meegas Ara Maha Viduhala</t>
+  </si>
+  <si>
+    <t>12-01-2009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,13 +234,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +273,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -278,34 +304,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,7 +334,29 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,8 +366,10 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -615,19 +648,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
     <col min="6" max="7" width="14.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
@@ -640,554 +673,298 @@
     <col min="17" max="17" width="18.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="35.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="13.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="13" customWidth="1"/>
     <col min="22" max="22" width="21.28515625" style="1" customWidth="1"/>
     <col min="23" max="24" width="21" style="1" customWidth="1"/>
     <col min="25" max="25" width="11.140625" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="18" t="s">
+      <c r="S1" s="24"/>
+      <c r="T1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="3" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:25" s="11" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19">
+        <v>4</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16">
+        <v>46</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+    </row>
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="19">
+        <v>4</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="16">
+        <v>46</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="U4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="V4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="B5" s="19">
+        <v>4</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="16">
+        <v>46</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="K5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="18"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
+      <c r="T5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1196,7 +973,10 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:W1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>